--- a/data/preprocessed/motion/S4.xlsx
+++ b/data/preprocessed/motion/S4.xlsx
@@ -384,11 +384,11 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>[2 0 0 1 0 0]</t>
+          <t>[2 0 0 0 0 0]</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0.2833333333333333</v>
+        <v>0.4777777777777778</v>
       </c>
     </row>
     <row r="3">
@@ -397,11 +397,11 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>[2 0 0 1 0 0]</t>
+          <t>[2 0 0 0 0 0]</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>0.2833333333333333</v>
+        <v>0.4777777777777778</v>
       </c>
     </row>
     <row r="4">
@@ -410,11 +410,11 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>[2 0 0 1 0 0]</t>
+          <t>[2 0 0 0 0 0]</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>0.2833333333333333</v>
+        <v>0.4777777777777778</v>
       </c>
     </row>
     <row r="5">
@@ -423,11 +423,11 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>[2 0 0 1 0 0]</t>
+          <t>[2 0 0 0 0 0]</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>0.2833333333333333</v>
+        <v>0.4777777777777778</v>
       </c>
     </row>
     <row r="6">
@@ -436,11 +436,11 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>[2 0 0 1 0 0]</t>
+          <t>[2 0 0 0 0 0]</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>0.2833333333333333</v>
+        <v>0.4777777777777778</v>
       </c>
     </row>
     <row r="7">
@@ -449,11 +449,11 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>[2 0 0 1 0 0]</t>
+          <t>[2 0 0 0 0 0]</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>0.2833333333333333</v>
+        <v>0.4777777777777778</v>
       </c>
     </row>
     <row r="8">
@@ -462,11 +462,11 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>[2 0 0 1 0 0]</t>
+          <t>[2 0 0 0 0 0]</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>0.2833333333333333</v>
+        <v>0.4777777777777778</v>
       </c>
     </row>
     <row r="9">
@@ -475,11 +475,11 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>[0 0 0 1 0 0]</t>
+          <t>[0 0 0 0 0 0]</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>0.01666666666666667</v>
+        <v>0.03888888888888889</v>
       </c>
     </row>
     <row r="10">
@@ -488,11 +488,11 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>[1 0 0 1 0 0]</t>
+          <t>[1 0 0 0 0 0]</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>0.2666666666666667</v>
+        <v>0.4833333333333333</v>
       </c>
     </row>
     <row r="11">
@@ -501,11 +501,11 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>[1 0 0 1 0 0]</t>
+          <t>[1 0 0 0 0 0]</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>0.2666666666666667</v>
+        <v>0.4833333333333333</v>
       </c>
     </row>
     <row r="12">
@@ -514,11 +514,11 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>[1 0 0 1 0 0]</t>
+          <t>[1 0 0 0 0 0]</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>0.2666666666666667</v>
+        <v>0.4833333333333333</v>
       </c>
     </row>
     <row r="13">
@@ -527,11 +527,11 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>[1 0 0 1 0 0]</t>
+          <t>[1 0 0 0 0 0]</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>0.2666666666666667</v>
+        <v>0.4833333333333333</v>
       </c>
     </row>
     <row r="14">
@@ -540,11 +540,11 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>[1 0 0 1 0 0]</t>
+          <t>[1 0 0 0 0 0]</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>0.2666666666666667</v>
+        <v>0.4833333333333333</v>
       </c>
     </row>
     <row r="15">
@@ -553,11 +553,11 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>[1 0 0 1 0 0]</t>
+          <t>[1 0 0 0 0 0]</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>0.2666666666666667</v>
+        <v>0.4833333333333333</v>
       </c>
     </row>
     <row r="16">
@@ -566,11 +566,11 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>[1 0 0 1 0 0]</t>
+          <t>[1 0 0 0 0 0]</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>0.2666666666666667</v>
+        <v>0.4833333333333333</v>
       </c>
     </row>
     <row r="17">
@@ -579,11 +579,11 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>[1 0 0 1 0 0]</t>
+          <t>[1 0 0 0 0 0]</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>0.2666666666666667</v>
+        <v>0.4833333333333333</v>
       </c>
     </row>
     <row r="18">
@@ -592,11 +592,11 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>[1 0 0 1 0 0]</t>
+          <t>[1 0 0 0 0 0]</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>0.2666666666666667</v>
+        <v>0.4833333333333333</v>
       </c>
     </row>
     <row r="19">
@@ -605,11 +605,11 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>[1 0 0 1 0 0]</t>
+          <t>[1 0 0 0 0 0]</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>0.2666666666666667</v>
+        <v>0.4833333333333333</v>
       </c>
     </row>
     <row r="20">
@@ -618,11 +618,11 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>[1 0 0 1 0 0]</t>
+          <t>[1 0 0 0 0 0]</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>0.2666666666666667</v>
+        <v>0.4833333333333333</v>
       </c>
     </row>
     <row r="21">
@@ -631,11 +631,11 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>[1 0 0 1 0 0]</t>
+          <t>[1 0 0 0 0 0]</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>0.2666666666666667</v>
+        <v>0.4833333333333333</v>
       </c>
     </row>
     <row r="22">
@@ -644,11 +644,11 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>[1 0 0 1 0 0]</t>
+          <t>[1 0 0 0 0 0]</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>0.2666666666666667</v>
+        <v>0.4833333333333333</v>
       </c>
     </row>
     <row r="23">
@@ -657,11 +657,11 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>[1 0 0 1 0 0]</t>
+          <t>[1 0 0 0 0 0]</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>0.2666666666666667</v>
+        <v>0.4833333333333333</v>
       </c>
     </row>
     <row r="24">
@@ -670,11 +670,11 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>[0 0 0 1 0 0]</t>
+          <t>[0 0 0 0 0 0]</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>0.01666666666666667</v>
+        <v>0.03888888888888889</v>
       </c>
     </row>
     <row r="25">
@@ -683,11 +683,11 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>[2 0 0 1 0 0]</t>
+          <t>[2 0 0 0 0 0]</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>0.2833333333333333</v>
+        <v>0.4777777777777778</v>
       </c>
     </row>
     <row r="26">
@@ -696,11 +696,11 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>[2 0 0 1 0 0]</t>
+          <t>[2 0 0 0 0 0]</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>0.2833333333333333</v>
+        <v>0.4777777777777778</v>
       </c>
     </row>
     <row r="27">
@@ -709,11 +709,11 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>[2 0 0 1 0 0]</t>
+          <t>[2 0 0 0 0 0]</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>0.2833333333333333</v>
+        <v>0.4777777777777778</v>
       </c>
     </row>
     <row r="28">
@@ -722,11 +722,11 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>[2 0 0 1 0 0]</t>
+          <t>[2 0 0 0 0 0]</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>0.2833333333333333</v>
+        <v>0.4777777777777778</v>
       </c>
     </row>
     <row r="29">
@@ -735,11 +735,11 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>[2 0 0 1 0 0]</t>
+          <t>[2 0 0 0 0 0]</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>0.2833333333333333</v>
+        <v>0.4777777777777778</v>
       </c>
     </row>
     <row r="30">
@@ -748,11 +748,11 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>[2 0 0 1 0 0]</t>
+          <t>[2 0 0 0 0 0]</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>0.2833333333333333</v>
+        <v>0.4777777777777778</v>
       </c>
     </row>
     <row r="31">
@@ -761,11 +761,11 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>[2 0 0 1 0 0]</t>
+          <t>[2 0 0 0 0 0]</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>0.2833333333333333</v>
+        <v>0.4777777777777778</v>
       </c>
     </row>
     <row r="32">
@@ -774,11 +774,11 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>[2 0 0 1 0 0]</t>
+          <t>[2 0 0 0 0 0]</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>0.2833333333333333</v>
+        <v>0.4777777777777778</v>
       </c>
     </row>
     <row r="33">
@@ -787,11 +787,11 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>[2 0 0 1 0 0]</t>
+          <t>[2 0 0 0 0 0]</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>0.2833333333333333</v>
+        <v>0.4777777777777778</v>
       </c>
     </row>
     <row r="34">
@@ -800,11 +800,11 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>[2 0 0 1 0 0]</t>
+          <t>[2 0 0 0 0 0]</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>0.2833333333333333</v>
+        <v>0.4777777777777778</v>
       </c>
     </row>
     <row r="35">
@@ -813,11 +813,11 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>[2 0 0 1 0 0]</t>
+          <t>[2 0 0 0 0 0]</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>0.2833333333333333</v>
+        <v>0.4777777777777778</v>
       </c>
     </row>
     <row r="36">
@@ -826,11 +826,11 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>[2 0 0 1 0 0]</t>
+          <t>[2 0 0 0 0 0]</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>0.2833333333333333</v>
+        <v>0.4777777777777778</v>
       </c>
     </row>
     <row r="37">
@@ -839,11 +839,11 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>[2 0 0 1 0 0]</t>
+          <t>[2 0 0 0 0 0]</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>0.2833333333333333</v>
+        <v>0.4777777777777778</v>
       </c>
     </row>
     <row r="38">
@@ -852,11 +852,11 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>[2 0 0 1 0 0]</t>
+          <t>[2 0 0 0 0 0]</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>0.2833333333333333</v>
+        <v>0.4777777777777778</v>
       </c>
     </row>
     <row r="39">
@@ -865,11 +865,11 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>[0 0 0 1 0 0]</t>
+          <t>[0 0 0 0 0 0]</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>0.01666666666666667</v>
+        <v>0.03888888888888889</v>
       </c>
     </row>
     <row r="40">
@@ -878,11 +878,11 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>[1 0 0 1 0 0]</t>
+          <t>[1 0 0 0 0 0]</t>
         </is>
       </c>
       <c r="C40" t="n">
-        <v>0.2666666666666667</v>
+        <v>0.4833333333333333</v>
       </c>
     </row>
     <row r="41">
@@ -891,11 +891,11 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>[1 0 0 1 0 0]</t>
+          <t>[1 0 0 0 0 0]</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>0.2666666666666667</v>
+        <v>0.4833333333333333</v>
       </c>
     </row>
     <row r="42">
@@ -904,11 +904,11 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>[1 0 0 1 0 0]</t>
+          <t>[1 0 0 0 0 0]</t>
         </is>
       </c>
       <c r="C42" t="n">
-        <v>0.2666666666666667</v>
+        <v>0.4833333333333333</v>
       </c>
     </row>
     <row r="43">
@@ -917,11 +917,11 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>[1 0 0 1 0 0]</t>
+          <t>[1 0 0 0 0 0]</t>
         </is>
       </c>
       <c r="C43" t="n">
-        <v>0.2666666666666667</v>
+        <v>0.4833333333333333</v>
       </c>
     </row>
     <row r="44">
@@ -930,11 +930,11 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>[1 0 0 1 0 0]</t>
+          <t>[1 0 0 0 0 0]</t>
         </is>
       </c>
       <c r="C44" t="n">
-        <v>0.2666666666666667</v>
+        <v>0.4833333333333333</v>
       </c>
     </row>
     <row r="45">
@@ -943,11 +943,11 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>[1 0 0 1 0 0]</t>
+          <t>[1 0 0 0 0 0]</t>
         </is>
       </c>
       <c r="C45" t="n">
-        <v>0.2666666666666667</v>
+        <v>0.4833333333333333</v>
       </c>
     </row>
     <row r="46">
@@ -956,11 +956,11 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>[1 0 0 1 0 0]</t>
+          <t>[1 0 0 0 0 0]</t>
         </is>
       </c>
       <c r="C46" t="n">
-        <v>0.2666666666666667</v>
+        <v>0.4833333333333333</v>
       </c>
     </row>
     <row r="47">
@@ -969,11 +969,11 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>[1 0 0 1 0 0]</t>
+          <t>[1 0 0 0 0 0]</t>
         </is>
       </c>
       <c r="C47" t="n">
-        <v>0.2666666666666667</v>
+        <v>0.4833333333333333</v>
       </c>
     </row>
     <row r="48">
@@ -982,11 +982,11 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>[1 0 0 1 0 0]</t>
+          <t>[1 0 0 0 0 0]</t>
         </is>
       </c>
       <c r="C48" t="n">
-        <v>0.2666666666666667</v>
+        <v>0.4833333333333333</v>
       </c>
     </row>
     <row r="49">
@@ -999,7 +999,7 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>0.01666666666666667</v>
+        <v>0.4833333333333333</v>
       </c>
     </row>
     <row r="50">
@@ -1008,11 +1008,11 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>[1 0 0 2 0 0]</t>
+          <t>[1 0 0 0 0 0]</t>
         </is>
       </c>
       <c r="C50" t="n">
-        <v>0.2</v>
+        <v>0.4833333333333333</v>
       </c>
     </row>
     <row r="51">
@@ -1021,11 +1021,11 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>[1 0 0 2 0 0]</t>
+          <t>[1 0 0 0 0 0]</t>
         </is>
       </c>
       <c r="C51" t="n">
-        <v>0.2</v>
+        <v>0.4833333333333333</v>
       </c>
     </row>
     <row r="52">
@@ -1034,11 +1034,11 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>[1 0 0 2 0 0]</t>
+          <t>[1 0 0 0 0 0]</t>
         </is>
       </c>
       <c r="C52" t="n">
-        <v>0.2</v>
+        <v>0.4833333333333333</v>
       </c>
     </row>
     <row r="53">
@@ -1047,11 +1047,11 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>[1 0 0 2 0 0]</t>
+          <t>[1 0 0 0 0 0]</t>
         </is>
       </c>
       <c r="C53" t="n">
-        <v>0.2</v>
+        <v>0.4833333333333333</v>
       </c>
     </row>
     <row r="54">
@@ -1060,11 +1060,11 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>[0 0 0 2 0 0]</t>
+          <t>[0 0 0 0 0 0]</t>
         </is>
       </c>
       <c r="C54" t="n">
-        <v>0.02222222222222222</v>
+        <v>0.03888888888888889</v>
       </c>
     </row>
     <row r="55">
@@ -1073,11 +1073,11 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>[2 0 0 2 0 0]</t>
+          <t>[2 0 0 0 0 0]</t>
         </is>
       </c>
       <c r="C55" t="n">
-        <v>0.1944444444444444</v>
+        <v>0.4777777777777778</v>
       </c>
     </row>
     <row r="56">
@@ -1086,11 +1086,11 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>[2 0 0 2 0 0]</t>
+          <t>[2 0 0 0 0 0]</t>
         </is>
       </c>
       <c r="C56" t="n">
-        <v>0.1944444444444444</v>
+        <v>0.4777777777777778</v>
       </c>
     </row>
     <row r="57">
@@ -1099,11 +1099,11 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>[2 0 0 2 0 0]</t>
+          <t>[2 0 0 0 0 0]</t>
         </is>
       </c>
       <c r="C57" t="n">
-        <v>0.1944444444444444</v>
+        <v>0.4777777777777778</v>
       </c>
     </row>
     <row r="58">
@@ -1112,11 +1112,11 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>[2 0 0 2 0 0]</t>
+          <t>[2 0 0 0 0 0]</t>
         </is>
       </c>
       <c r="C58" t="n">
-        <v>0.1944444444444444</v>
+        <v>0.4777777777777778</v>
       </c>
     </row>
     <row r="59">
@@ -1125,11 +1125,11 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>[2 0 0 2 0 0]</t>
+          <t>[2 0 0 0 0 0]</t>
         </is>
       </c>
       <c r="C59" t="n">
-        <v>0.1944444444444444</v>
+        <v>0.4777777777777778</v>
       </c>
     </row>
     <row r="60">
@@ -1138,11 +1138,11 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>[2 0 0 2 0 0]</t>
+          <t>[2 0 0 0 0 0]</t>
         </is>
       </c>
       <c r="C60" t="n">
-        <v>0.1944444444444444</v>
+        <v>0.4777777777777778</v>
       </c>
     </row>
     <row r="61">
@@ -1151,11 +1151,11 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>[2 0 0 2 0 0]</t>
+          <t>[2 0 0 0 0 0]</t>
         </is>
       </c>
       <c r="C61" t="n">
-        <v>0.1944444444444444</v>
+        <v>0.4777777777777778</v>
       </c>
     </row>
     <row r="62">
@@ -1164,11 +1164,11 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>[2 0 0 2 0 0]</t>
+          <t>[2 0 0 0 0 0]</t>
         </is>
       </c>
       <c r="C62" t="n">
-        <v>0.1944444444444444</v>
+        <v>0.4777777777777778</v>
       </c>
     </row>
     <row r="63">
@@ -1177,11 +1177,11 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>[2 0 0 2 0 0]</t>
+          <t>[2 0 0 0 0 0]</t>
         </is>
       </c>
       <c r="C63" t="n">
-        <v>0.1944444444444444</v>
+        <v>0.4777777777777778</v>
       </c>
     </row>
     <row r="64">
@@ -1190,11 +1190,11 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>[2 0 0 2 0 0]</t>
+          <t>[2 0 0 0 0 0]</t>
         </is>
       </c>
       <c r="C64" t="n">
-        <v>0.1944444444444444</v>
+        <v>0.4777777777777778</v>
       </c>
     </row>
     <row r="65">
@@ -1203,11 +1203,11 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>[2 0 0 2 0 0]</t>
+          <t>[2 0 0 0 0 0]</t>
         </is>
       </c>
       <c r="C65" t="n">
-        <v>0.1944444444444444</v>
+        <v>0.4777777777777778</v>
       </c>
     </row>
     <row r="66">
@@ -1216,11 +1216,11 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>[2 0 0 2 0 0]</t>
+          <t>[2 0 0 0 0 0]</t>
         </is>
       </c>
       <c r="C66" t="n">
-        <v>0.1944444444444444</v>
+        <v>0.4777777777777778</v>
       </c>
     </row>
     <row r="67">
@@ -1229,11 +1229,11 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>[2 0 0 2 0 0]</t>
+          <t>[2 0 0 0 0 0]</t>
         </is>
       </c>
       <c r="C67" t="n">
-        <v>0.1944444444444444</v>
+        <v>0.4777777777777778</v>
       </c>
     </row>
     <row r="68">
@@ -1242,11 +1242,11 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>[2 0 0 2 0 0]</t>
+          <t>[2 0 0 0 0 0]</t>
         </is>
       </c>
       <c r="C68" t="n">
-        <v>0.1944444444444444</v>
+        <v>0.4777777777777778</v>
       </c>
     </row>
     <row r="69">
@@ -1255,11 +1255,11 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>[0 0 0 2 0 0]</t>
+          <t>[0 0 0 0 0 0]</t>
         </is>
       </c>
       <c r="C69" t="n">
-        <v>0.02222222222222222</v>
+        <v>0.03888888888888889</v>
       </c>
     </row>
     <row r="70">
@@ -1268,11 +1268,11 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>[1 0 0 2 0 0]</t>
+          <t>[1 0 0 0 0 0]</t>
         </is>
       </c>
       <c r="C70" t="n">
-        <v>0.2</v>
+        <v>0.4833333333333333</v>
       </c>
     </row>
     <row r="71">
@@ -1281,11 +1281,11 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>[1 0 0 2 0 0]</t>
+          <t>[1 0 0 0 0 0]</t>
         </is>
       </c>
       <c r="C71" t="n">
-        <v>0.2</v>
+        <v>0.4833333333333333</v>
       </c>
     </row>
     <row r="72">
@@ -1294,11 +1294,11 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>[1 0 0 2 0 0]</t>
+          <t>[1 0 0 0 0 0]</t>
         </is>
       </c>
       <c r="C72" t="n">
-        <v>0.2</v>
+        <v>0.4833333333333333</v>
       </c>
     </row>
     <row r="73">
@@ -1307,11 +1307,11 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>[1 0 0 2 0 0]</t>
+          <t>[1 0 0 0 0 0]</t>
         </is>
       </c>
       <c r="C73" t="n">
-        <v>0.2</v>
+        <v>0.4833333333333333</v>
       </c>
     </row>
     <row r="74">
@@ -1320,11 +1320,11 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>[1 0 0 2 0 0]</t>
+          <t>[1 0 0 0 0 0]</t>
         </is>
       </c>
       <c r="C74" t="n">
-        <v>0.2</v>
+        <v>0.4833333333333333</v>
       </c>
     </row>
     <row r="75">
@@ -1333,11 +1333,11 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>[1 0 0 2 0 0]</t>
+          <t>[1 0 0 0 0 0]</t>
         </is>
       </c>
       <c r="C75" t="n">
-        <v>0.2</v>
+        <v>0.4833333333333333</v>
       </c>
     </row>
     <row r="76">
@@ -1346,11 +1346,11 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>[1 0 0 2 0 0]</t>
+          <t>[1 0 0 0 0 0]</t>
         </is>
       </c>
       <c r="C76" t="n">
-        <v>0.2</v>
+        <v>0.4833333333333333</v>
       </c>
     </row>
     <row r="77">
@@ -1359,11 +1359,11 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>[1 0 0 2 0 0]</t>
+          <t>[1 0 0 0 0 0]</t>
         </is>
       </c>
       <c r="C77" t="n">
-        <v>0.2</v>
+        <v>0.4833333333333333</v>
       </c>
     </row>
     <row r="78">
@@ -1372,11 +1372,11 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>[1 0 0 2 0 0]</t>
+          <t>[1 0 0 0 0 0]</t>
         </is>
       </c>
       <c r="C78" t="n">
-        <v>0.2</v>
+        <v>0.4833333333333333</v>
       </c>
     </row>
     <row r="79">
@@ -1385,11 +1385,11 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>[1 0 0 2 0 0]</t>
+          <t>[1 0 0 0 0 0]</t>
         </is>
       </c>
       <c r="C79" t="n">
-        <v>0.2</v>
+        <v>0.4833333333333333</v>
       </c>
     </row>
     <row r="80">
@@ -1398,11 +1398,11 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>[1 0 0 2 0 0]</t>
+          <t>[1 0 0 0 0 0]</t>
         </is>
       </c>
       <c r="C80" t="n">
-        <v>0.2</v>
+        <v>0.4833333333333333</v>
       </c>
     </row>
     <row r="81">
@@ -1411,11 +1411,11 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>[1 0 0 2 0 0]</t>
+          <t>[1 0 0 0 0 0]</t>
         </is>
       </c>
       <c r="C81" t="n">
-        <v>0.2</v>
+        <v>0.4833333333333333</v>
       </c>
     </row>
     <row r="82">
@@ -1424,11 +1424,11 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>[1 0 0 2 0 0]</t>
+          <t>[1 0 0 0 0 0]</t>
         </is>
       </c>
       <c r="C82" t="n">
-        <v>0.2</v>
+        <v>0.4833333333333333</v>
       </c>
     </row>
     <row r="83">
@@ -1437,11 +1437,11 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>[1 0 0 2 0 0]</t>
+          <t>[1 0 0 0 0 0]</t>
         </is>
       </c>
       <c r="C83" t="n">
-        <v>0.2</v>
+        <v>0.4833333333333333</v>
       </c>
     </row>
     <row r="84">
@@ -1450,11 +1450,11 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>[0 0 0 2 0 0]</t>
+          <t>[0 0 0 0 0 0]</t>
         </is>
       </c>
       <c r="C84" t="n">
-        <v>0.02222222222222222</v>
+        <v>0.03888888888888889</v>
       </c>
     </row>
     <row r="85">
@@ -1463,11 +1463,11 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>[2 0 0 2 0 0]</t>
+          <t>[2 0 0 0 0 0]</t>
         </is>
       </c>
       <c r="C85" t="n">
-        <v>0.1944444444444444</v>
+        <v>0.4777777777777778</v>
       </c>
     </row>
     <row r="86">
@@ -1476,11 +1476,11 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>[2 0 0 2 0 0]</t>
+          <t>[2 0 0 0 0 0]</t>
         </is>
       </c>
       <c r="C86" t="n">
-        <v>0.1944444444444444</v>
+        <v>0.4777777777777778</v>
       </c>
     </row>
     <row r="87">
@@ -1489,11 +1489,11 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>[2 0 0 2 0 0]</t>
+          <t>[2 0 0 0 0 0]</t>
         </is>
       </c>
       <c r="C87" t="n">
-        <v>0.1944444444444444</v>
+        <v>0.4777777777777778</v>
       </c>
     </row>
     <row r="88">
@@ -1502,11 +1502,11 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>[2 0 0 2 0 0]</t>
+          <t>[2 0 0 0 0 0]</t>
         </is>
       </c>
       <c r="C88" t="n">
-        <v>0.1944444444444444</v>
+        <v>0.4777777777777778</v>
       </c>
     </row>
     <row r="89">
@@ -1515,11 +1515,11 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>[2 0 0 2 0 0]</t>
+          <t>[2 0 0 0 0 0]</t>
         </is>
       </c>
       <c r="C89" t="n">
-        <v>0.1944444444444444</v>
+        <v>0.4777777777777778</v>
       </c>
     </row>
     <row r="90">
@@ -1528,11 +1528,11 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>[2 0 0 2 0 0]</t>
+          <t>[2 0 0 0 0 0]</t>
         </is>
       </c>
       <c r="C90" t="n">
-        <v>0.1944444444444444</v>
+        <v>0.4777777777777778</v>
       </c>
     </row>
     <row r="91">
@@ -1541,11 +1541,11 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>[2 0 0 2 0 0]</t>
+          <t>[2 0 0 0 0 0]</t>
         </is>
       </c>
       <c r="C91" t="n">
-        <v>0.1944444444444444</v>
+        <v>0.4777777777777778</v>
       </c>
     </row>
     <row r="92">
@@ -1554,11 +1554,11 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>[2 0 0 2 0 0]</t>
+          <t>[2 0 0 0 0 0]</t>
         </is>
       </c>
       <c r="C92" t="n">
-        <v>0.1944444444444444</v>
+        <v>0.4777777777777778</v>
       </c>
     </row>
     <row r="93">
@@ -1567,11 +1567,11 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>[2 0 0 2 0 0]</t>
+          <t>[2 0 0 0 0 0]</t>
         </is>
       </c>
       <c r="C93" t="n">
-        <v>0.1944444444444444</v>
+        <v>0.4777777777777778</v>
       </c>
     </row>
     <row r="94">
@@ -1580,11 +1580,11 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>[2 0 0 2 0 0]</t>
+          <t>[2 0 0 0 0 0]</t>
         </is>
       </c>
       <c r="C94" t="n">
-        <v>0.1944444444444444</v>
+        <v>0.4777777777777778</v>
       </c>
     </row>
     <row r="95">
@@ -1593,11 +1593,11 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>[2 0 0 2 0 0]</t>
+          <t>[2 0 0 0 0 0]</t>
         </is>
       </c>
       <c r="C95" t="n">
-        <v>0.1944444444444444</v>
+        <v>0.4777777777777778</v>
       </c>
     </row>
     <row r="96">
@@ -1606,11 +1606,11 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>[2 0 0 2 0 0]</t>
+          <t>[2 0 0 0 0 0]</t>
         </is>
       </c>
       <c r="C96" t="n">
-        <v>0.1944444444444444</v>
+        <v>0.4777777777777778</v>
       </c>
     </row>
     <row r="97">
@@ -1619,11 +1619,11 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>[2 0 0 2 0 0]</t>
+          <t>[2 0 0 0 0 0]</t>
         </is>
       </c>
       <c r="C97" t="n">
-        <v>0.1944444444444444</v>
+        <v>0.4777777777777778</v>
       </c>
     </row>
     <row r="98">
@@ -1632,11 +1632,11 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>[2 0 0 2 0 0]</t>
+          <t>[2 0 0 0 0 0]</t>
         </is>
       </c>
       <c r="C98" t="n">
-        <v>0.1944444444444444</v>
+        <v>0.4777777777777778</v>
       </c>
     </row>
     <row r="99">
@@ -1645,11 +1645,11 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>[0 0 0 2 0 0]</t>
+          <t>[0 0 0 0 0 0]</t>
         </is>
       </c>
       <c r="C99" t="n">
-        <v>0.02222222222222222</v>
+        <v>0.03888888888888889</v>
       </c>
     </row>
     <row r="100">
@@ -1658,11 +1658,11 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>[1 0 0 2 0 0]</t>
+          <t>[1 0 0 0 0 0]</t>
         </is>
       </c>
       <c r="C100" t="n">
-        <v>0.2</v>
+        <v>0.4833333333333333</v>
       </c>
     </row>
     <row r="101">
@@ -1671,11 +1671,11 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>[1 0 0 2 0 0]</t>
+          <t>[1 0 0 0 0 0]</t>
         </is>
       </c>
       <c r="C101" t="n">
-        <v>0.2</v>
+        <v>0.4833333333333333</v>
       </c>
     </row>
     <row r="102">
@@ -1684,11 +1684,11 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>[1 0 0 2 0 0]</t>
+          <t>[1 0 0 0 0 0]</t>
         </is>
       </c>
       <c r="C102" t="n">
-        <v>0.2</v>
+        <v>0.4833333333333333</v>
       </c>
     </row>
     <row r="103">
@@ -1697,11 +1697,11 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>[1 0 0 2 0 0]</t>
+          <t>[1 0 0 0 0 0]</t>
         </is>
       </c>
       <c r="C103" t="n">
-        <v>0.2</v>
+        <v>0.4833333333333333</v>
       </c>
     </row>
     <row r="104">
@@ -1710,11 +1710,11 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>[1 0 0 2 0 0]</t>
+          <t>[1 0 0 0 0 0]</t>
         </is>
       </c>
       <c r="C104" t="n">
-        <v>0.2</v>
+        <v>0.4833333333333333</v>
       </c>
     </row>
     <row r="105">
@@ -1727,7 +1727,7 @@
         </is>
       </c>
       <c r="C105" t="n">
-        <v>0.01666666666666667</v>
+        <v>0.4833333333333333</v>
       </c>
     </row>
     <row r="106">
@@ -1736,11 +1736,11 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>[1 0 0 1 0 0]</t>
+          <t>[1 0 0 0 0 0]</t>
         </is>
       </c>
       <c r="C106" t="n">
-        <v>0.2666666666666667</v>
+        <v>0.4833333333333333</v>
       </c>
     </row>
     <row r="107">
@@ -1749,11 +1749,11 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>[1 0 0 1 0 0]</t>
+          <t>[1 0 0 0 0 0]</t>
         </is>
       </c>
       <c r="C107" t="n">
-        <v>0.2666666666666667</v>
+        <v>0.4833333333333333</v>
       </c>
     </row>
     <row r="108">
@@ -1762,11 +1762,11 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>[1 0 0 1 0 0]</t>
+          <t>[1 0 0 0 0 0]</t>
         </is>
       </c>
       <c r="C108" t="n">
-        <v>0.2666666666666667</v>
+        <v>0.4833333333333333</v>
       </c>
     </row>
     <row r="109">
@@ -1775,11 +1775,11 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>[1 0 0 1 0 0]</t>
+          <t>[1 0 0 0 0 0]</t>
         </is>
       </c>
       <c r="C109" t="n">
-        <v>0.2666666666666667</v>
+        <v>0.4833333333333333</v>
       </c>
     </row>
     <row r="110">
@@ -1788,11 +1788,11 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>[1 0 0 1 0 0]</t>
+          <t>[1 0 0 0 0 0]</t>
         </is>
       </c>
       <c r="C110" t="n">
-        <v>0.2666666666666667</v>
+        <v>0.4833333333333333</v>
       </c>
     </row>
     <row r="111">
@@ -1801,11 +1801,11 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>[1 0 0 1 0 0]</t>
+          <t>[1 0 0 0 0 0]</t>
         </is>
       </c>
       <c r="C111" t="n">
-        <v>0.2666666666666667</v>
+        <v>0.4833333333333333</v>
       </c>
     </row>
     <row r="112">
@@ -1814,11 +1814,11 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>[1 0 0 1 0 0]</t>
+          <t>[1 0 0 0 0 0]</t>
         </is>
       </c>
       <c r="C112" t="n">
-        <v>0.2666666666666667</v>
+        <v>0.4833333333333333</v>
       </c>
     </row>
     <row r="113">
@@ -1827,11 +1827,11 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>[1 0 0 1 0 0]</t>
+          <t>[1 0 0 0 0 0]</t>
         </is>
       </c>
       <c r="C113" t="n">
-        <v>0.2666666666666667</v>
+        <v>0.4833333333333333</v>
       </c>
     </row>
     <row r="114">
@@ -1840,11 +1840,11 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>[1 0 0 1 0 0]</t>
+          <t>[1 0 0 0 0 0]</t>
         </is>
       </c>
       <c r="C114" t="n">
-        <v>0.2666666666666667</v>
+        <v>0.4833333333333333</v>
       </c>
     </row>
     <row r="115">
@@ -1853,11 +1853,11 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>[2 0 0 1 0 0]</t>
+          <t>[2 0 0 0 0 0]</t>
         </is>
       </c>
       <c r="C115" t="n">
-        <v>0.2833333333333333</v>
+        <v>0.4777777777777778</v>
       </c>
     </row>
     <row r="116">
@@ -1866,11 +1866,11 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>[2 0 0 1 0 0]</t>
+          <t>[2 0 0 0 0 0]</t>
         </is>
       </c>
       <c r="C116" t="n">
-        <v>0.2833333333333333</v>
+        <v>0.4777777777777778</v>
       </c>
     </row>
     <row r="117">
@@ -1879,11 +1879,11 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>[2 0 0 1 0 0]</t>
+          <t>[2 0 0 0 0 0]</t>
         </is>
       </c>
       <c r="C117" t="n">
-        <v>0.2833333333333333</v>
+        <v>0.4777777777777778</v>
       </c>
     </row>
     <row r="118">
@@ -1892,11 +1892,11 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>[2 0 0 1 0 0]</t>
+          <t>[2 0 0 0 0 0]</t>
         </is>
       </c>
       <c r="C118" t="n">
-        <v>0.2833333333333333</v>
+        <v>0.4777777777777778</v>
       </c>
     </row>
     <row r="119">
@@ -1905,11 +1905,11 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>[2 0 0 1 0 0]</t>
+          <t>[2 0 0 0 0 0]</t>
         </is>
       </c>
       <c r="C119" t="n">
-        <v>0.2833333333333333</v>
+        <v>0.4777777777777778</v>
       </c>
     </row>
     <row r="120">
@@ -1918,11 +1918,11 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>[2 0 0 1 0 0]</t>
+          <t>[2 0 0 0 0 0]</t>
         </is>
       </c>
       <c r="C120" t="n">
-        <v>0.2833333333333333</v>
+        <v>0.4777777777777778</v>
       </c>
     </row>
     <row r="121">
@@ -1931,11 +1931,11 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>[2 0 0 1 0 0]</t>
+          <t>[2 0 0 0 0 0]</t>
         </is>
       </c>
       <c r="C121" t="n">
-        <v>0.2833333333333333</v>
+        <v>0.4777777777777778</v>
       </c>
     </row>
     <row r="122">
@@ -1944,11 +1944,11 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>[2 0 0 1 0 0]</t>
+          <t>[2 0 0 0 0 0]</t>
         </is>
       </c>
       <c r="C122" t="n">
-        <v>0.2833333333333333</v>
+        <v>0.4777777777777778</v>
       </c>
     </row>
     <row r="123">
@@ -1957,11 +1957,11 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>[2 0 0 1 0 0]</t>
+          <t>[2 0 0 0 0 0]</t>
         </is>
       </c>
       <c r="C123" t="n">
-        <v>0.2833333333333333</v>
+        <v>0.4777777777777778</v>
       </c>
     </row>
     <row r="124">
@@ -1970,11 +1970,11 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>[2 0 0 1 0 0]</t>
+          <t>[2 0 0 0 0 0]</t>
         </is>
       </c>
       <c r="C124" t="n">
-        <v>0.2833333333333333</v>
+        <v>0.4777777777777778</v>
       </c>
     </row>
     <row r="125">
@@ -1983,11 +1983,11 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>[2 0 0 1 0 0]</t>
+          <t>[2 0 0 0 0 0]</t>
         </is>
       </c>
       <c r="C125" t="n">
-        <v>0.2833333333333333</v>
+        <v>0.4777777777777778</v>
       </c>
     </row>
     <row r="126">
@@ -1996,11 +1996,11 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>[2 0 0 1 0 0]</t>
+          <t>[2 0 0 0 0 0]</t>
         </is>
       </c>
       <c r="C126" t="n">
-        <v>0.2833333333333333</v>
+        <v>0.4777777777777778</v>
       </c>
     </row>
     <row r="127">
@@ -2009,11 +2009,11 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>[2 0 0 1 0 0]</t>
+          <t>[2 0 0 0 0 0]</t>
         </is>
       </c>
       <c r="C127" t="n">
-        <v>0.2833333333333333</v>
+        <v>0.4777777777777778</v>
       </c>
     </row>
     <row r="128">
@@ -2022,11 +2022,11 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>[2 0 0 1 0 0]</t>
+          <t>[2 0 0 0 0 0]</t>
         </is>
       </c>
       <c r="C128" t="n">
-        <v>0.2833333333333333</v>
+        <v>0.4777777777777778</v>
       </c>
     </row>
     <row r="129">
@@ -2035,11 +2035,11 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>[2 0 0 1 0 0]</t>
+          <t>[2 0 0 0 0 0]</t>
         </is>
       </c>
       <c r="C129" t="n">
-        <v>0.2833333333333333</v>
+        <v>0.4777777777777778</v>
       </c>
     </row>
     <row r="130">
@@ -2048,11 +2048,11 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>[1 0 0 1 0 0]</t>
+          <t>[1 0 0 0 0 0]</t>
         </is>
       </c>
       <c r="C130" t="n">
-        <v>0.2666666666666667</v>
+        <v>0.4833333333333333</v>
       </c>
     </row>
     <row r="131">
@@ -2061,11 +2061,11 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>[1 0 0 1 0 0]</t>
+          <t>[1 0 0 0 0 0]</t>
         </is>
       </c>
       <c r="C131" t="n">
-        <v>0.2666666666666667</v>
+        <v>0.4833333333333333</v>
       </c>
     </row>
     <row r="132">
@@ -2074,11 +2074,11 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>[1 0 0 1 0 0]</t>
+          <t>[1 0 0 0 0 0]</t>
         </is>
       </c>
       <c r="C132" t="n">
-        <v>0.2666666666666667</v>
+        <v>0.4833333333333333</v>
       </c>
     </row>
     <row r="133">
@@ -2087,11 +2087,11 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>[1 0 0 1 0 0]</t>
+          <t>[1 0 0 0 0 0]</t>
         </is>
       </c>
       <c r="C133" t="n">
-        <v>0.2666666666666667</v>
+        <v>0.4833333333333333</v>
       </c>
     </row>
     <row r="134">
@@ -2100,11 +2100,11 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>[1 0 0 1 0 0]</t>
+          <t>[1 0 0 0 0 0]</t>
         </is>
       </c>
       <c r="C134" t="n">
-        <v>0.2666666666666667</v>
+        <v>0.4833333333333333</v>
       </c>
     </row>
     <row r="135">
@@ -2113,11 +2113,11 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>[1 0 0 1 0 0]</t>
+          <t>[1 0 0 0 0 0]</t>
         </is>
       </c>
       <c r="C135" t="n">
-        <v>0.2666666666666667</v>
+        <v>0.4833333333333333</v>
       </c>
     </row>
     <row r="136">
@@ -2126,11 +2126,11 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>[1 0 0 1 0 0]</t>
+          <t>[1 0 0 0 0 0]</t>
         </is>
       </c>
       <c r="C136" t="n">
-        <v>0.2666666666666667</v>
+        <v>0.4833333333333333</v>
       </c>
     </row>
     <row r="137">
@@ -2139,11 +2139,11 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>[1 0 0 1 0 0]</t>
+          <t>[1 0 0 0 0 0]</t>
         </is>
       </c>
       <c r="C137" t="n">
-        <v>0.2666666666666667</v>
+        <v>0.4833333333333333</v>
       </c>
     </row>
     <row r="138">
@@ -2152,11 +2152,11 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>[1 0 0 1 0 0]</t>
+          <t>[1 0 0 0 0 0]</t>
         </is>
       </c>
       <c r="C138" t="n">
-        <v>0.2666666666666667</v>
+        <v>0.4833333333333333</v>
       </c>
     </row>
     <row r="139">
@@ -2165,11 +2165,11 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>[1 0 0 1 0 0]</t>
+          <t>[1 0 0 0 0 0]</t>
         </is>
       </c>
       <c r="C139" t="n">
-        <v>0.2666666666666667</v>
+        <v>0.4833333333333333</v>
       </c>
     </row>
     <row r="140">
@@ -2178,11 +2178,11 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>[1 0 0 1 0 0]</t>
+          <t>[1 0 0 0 0 0]</t>
         </is>
       </c>
       <c r="C140" t="n">
-        <v>0.2666666666666667</v>
+        <v>0.4833333333333333</v>
       </c>
     </row>
     <row r="141">
@@ -2191,11 +2191,11 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>[1 0 0 1 0 0]</t>
+          <t>[1 0 0 0 0 0]</t>
         </is>
       </c>
       <c r="C141" t="n">
-        <v>0.2666666666666667</v>
+        <v>0.4833333333333333</v>
       </c>
     </row>
     <row r="142">
@@ -2204,11 +2204,11 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>[1 0 0 1 0 0]</t>
+          <t>[1 0 0 0 0 0]</t>
         </is>
       </c>
       <c r="C142" t="n">
-        <v>0.2666666666666667</v>
+        <v>0.4833333333333333</v>
       </c>
     </row>
     <row r="143">
@@ -2217,11 +2217,11 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>[1 0 0 1 0 0]</t>
+          <t>[1 0 0 0 0 0]</t>
         </is>
       </c>
       <c r="C143" t="n">
-        <v>0.2666666666666667</v>
+        <v>0.4833333333333333</v>
       </c>
     </row>
     <row r="144">
@@ -2230,11 +2230,11 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>[1 0 0 1 0 0]</t>
+          <t>[1 0 0 0 0 0]</t>
         </is>
       </c>
       <c r="C144" t="n">
-        <v>0.2666666666666667</v>
+        <v>0.4833333333333333</v>
       </c>
     </row>
     <row r="145">
@@ -2243,11 +2243,11 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>[2 0 0 1 0 0]</t>
+          <t>[2 0 0 0 0 0]</t>
         </is>
       </c>
       <c r="C145" t="n">
-        <v>0.2833333333333333</v>
+        <v>0.4777777777777778</v>
       </c>
     </row>
     <row r="146">
@@ -2256,11 +2256,11 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>[2 0 0 1 0 0]</t>
+          <t>[2 0 0 0 0 0]</t>
         </is>
       </c>
       <c r="C146" t="n">
-        <v>0.2833333333333333</v>
+        <v>0.4777777777777778</v>
       </c>
     </row>
     <row r="147">
@@ -2269,11 +2269,11 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>[2 0 0 1 0 0]</t>
+          <t>[2 0 0 0 0 0]</t>
         </is>
       </c>
       <c r="C147" t="n">
-        <v>0.2833333333333333</v>
+        <v>0.4777777777777778</v>
       </c>
     </row>
     <row r="148">
@@ -2282,11 +2282,11 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>[2 0 0 1 0 0]</t>
+          <t>[2 0 0 0 0 0]</t>
         </is>
       </c>
       <c r="C148" t="n">
-        <v>0.2833333333333333</v>
+        <v>0.4777777777777778</v>
       </c>
     </row>
     <row r="149">
@@ -2295,11 +2295,11 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>[2 0 0 1 0 0]</t>
+          <t>[2 0 0 0 0 0]</t>
         </is>
       </c>
       <c r="C149" t="n">
-        <v>0.2833333333333333</v>
+        <v>0.4777777777777778</v>
       </c>
     </row>
     <row r="150">
@@ -2308,11 +2308,11 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>[2 0 0 1 0 0]</t>
+          <t>[2 0 0 0 0 0]</t>
         </is>
       </c>
       <c r="C150" t="n">
-        <v>0.2833333333333333</v>
+        <v>0.4777777777777778</v>
       </c>
     </row>
     <row r="151">
@@ -2321,11 +2321,11 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>[2 0 0 1 0 0]</t>
+          <t>[2 0 0 0 0 0]</t>
         </is>
       </c>
       <c r="C151" t="n">
-        <v>0.2833333333333333</v>
+        <v>0.4777777777777778</v>
       </c>
     </row>
     <row r="152">
@@ -2334,11 +2334,11 @@
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>[2 0 0 1 0 0]</t>
+          <t>[2 0 0 0 0 0]</t>
         </is>
       </c>
       <c r="C152" t="n">
-        <v>0.2833333333333333</v>
+        <v>0.4777777777777778</v>
       </c>
     </row>
     <row r="153">
@@ -2347,11 +2347,11 @@
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>[2 0 0 1 0 0]</t>
+          <t>[2 0 0 0 0 0]</t>
         </is>
       </c>
       <c r="C153" t="n">
-        <v>0.2833333333333333</v>
+        <v>0.4777777777777778</v>
       </c>
     </row>
     <row r="154">
@@ -2360,11 +2360,11 @@
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>[2 0 0 1 0 0]</t>
+          <t>[2 0 0 0 0 0]</t>
         </is>
       </c>
       <c r="C154" t="n">
-        <v>0.2833333333333333</v>
+        <v>0.4777777777777778</v>
       </c>
     </row>
     <row r="155">
@@ -2373,11 +2373,11 @@
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>[2 0 0 1 0 0]</t>
+          <t>[2 0 0 0 0 0]</t>
         </is>
       </c>
       <c r="C155" t="n">
-        <v>0.2833333333333333</v>
+        <v>0.4777777777777778</v>
       </c>
     </row>
     <row r="156">
@@ -2386,11 +2386,11 @@
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>[2 0 0 1 0 0]</t>
+          <t>[2 0 0 0 0 0]</t>
         </is>
       </c>
       <c r="C156" t="n">
-        <v>0.2833333333333333</v>
+        <v>0.4777777777777778</v>
       </c>
     </row>
     <row r="157">
@@ -2399,11 +2399,11 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>[2 0 0 1 0 0]</t>
+          <t>[2 0 0 0 0 0]</t>
         </is>
       </c>
       <c r="C157" t="n">
-        <v>0.2833333333333333</v>
+        <v>0.4777777777777778</v>
       </c>
     </row>
     <row r="158">
@@ -2412,11 +2412,11 @@
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>[2 0 0 1 0 0]</t>
+          <t>[2 0 0 0 0 0]</t>
         </is>
       </c>
       <c r="C158" t="n">
-        <v>0.2833333333333333</v>
+        <v>0.4777777777777778</v>
       </c>
     </row>
     <row r="159">
@@ -2425,11 +2425,11 @@
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>[2 0 0 1 0 0]</t>
+          <t>[2 0 0 0 0 0]</t>
         </is>
       </c>
       <c r="C159" t="n">
-        <v>0.2833333333333333</v>
+        <v>0.4777777777777778</v>
       </c>
     </row>
     <row r="160">
@@ -2438,11 +2438,11 @@
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>[1 0 0 1 0 0]</t>
+          <t>[1 0 0 0 0 0]</t>
         </is>
       </c>
       <c r="C160" t="n">
-        <v>0.2666666666666667</v>
+        <v>0.4833333333333333</v>
       </c>
     </row>
     <row r="161">
@@ -2455,7 +2455,7 @@
         </is>
       </c>
       <c r="C161" t="n">
-        <v>0.01666666666666667</v>
+        <v>0.4833333333333333</v>
       </c>
     </row>
     <row r="162">
@@ -2464,11 +2464,11 @@
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>[1 0 0 2 0 0]</t>
+          <t>[1 0 0 0 0 0]</t>
         </is>
       </c>
       <c r="C162" t="n">
-        <v>0.2</v>
+        <v>0.4833333333333333</v>
       </c>
     </row>
     <row r="163">
@@ -2477,11 +2477,11 @@
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>[1 0 0 2 0 0]</t>
+          <t>[1 0 0 0 0 0]</t>
         </is>
       </c>
       <c r="C163" t="n">
-        <v>0.2</v>
+        <v>0.4833333333333333</v>
       </c>
     </row>
     <row r="164">
@@ -2490,11 +2490,11 @@
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>[1 0 0 2 0 0]</t>
+          <t>[1 0 0 0 0 0]</t>
         </is>
       </c>
       <c r="C164" t="n">
-        <v>0.2</v>
+        <v>0.4833333333333333</v>
       </c>
     </row>
     <row r="165">
@@ -2503,11 +2503,11 @@
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>[1 0 0 2 0 0]</t>
+          <t>[1 0 0 0 0 0]</t>
         </is>
       </c>
       <c r="C165" t="n">
-        <v>0.2</v>
+        <v>0.4833333333333333</v>
       </c>
     </row>
     <row r="166">
@@ -2516,11 +2516,11 @@
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>[1 0 0 2 0 0]</t>
+          <t>[1 0 0 0 0 0]</t>
         </is>
       </c>
       <c r="C166" t="n">
-        <v>0.2</v>
+        <v>0.4833333333333333</v>
       </c>
     </row>
     <row r="167">
@@ -2529,11 +2529,11 @@
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>[1 0 0 2 0 0]</t>
+          <t>[1 0 0 0 0 0]</t>
         </is>
       </c>
       <c r="C167" t="n">
-        <v>0.2</v>
+        <v>0.4833333333333333</v>
       </c>
     </row>
     <row r="168">
@@ -2542,11 +2542,11 @@
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>[1 0 0 2 0 0]</t>
+          <t>[1 0 0 0 0 0]</t>
         </is>
       </c>
       <c r="C168" t="n">
-        <v>0.2</v>
+        <v>0.4833333333333333</v>
       </c>
     </row>
     <row r="169">
@@ -2555,11 +2555,11 @@
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>[1 0 0 2 0 0]</t>
+          <t>[1 0 0 0 0 0]</t>
         </is>
       </c>
       <c r="C169" t="n">
-        <v>0.2</v>
+        <v>0.4833333333333333</v>
       </c>
     </row>
     <row r="170">
@@ -2568,11 +2568,11 @@
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>[1 0 0 2 0 0]</t>
+          <t>[1 0 0 0 0 0]</t>
         </is>
       </c>
       <c r="C170" t="n">
-        <v>0.2</v>
+        <v>0.4833333333333333</v>
       </c>
     </row>
     <row r="171">
@@ -2581,11 +2581,11 @@
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>[1 0 0 2 0 0]</t>
+          <t>[1 0 0 0 0 0]</t>
         </is>
       </c>
       <c r="C171" t="n">
-        <v>0.2</v>
+        <v>0.4833333333333333</v>
       </c>
     </row>
     <row r="172">
@@ -2594,11 +2594,11 @@
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>[1 0 0 2 0 0]</t>
+          <t>[1 0 0 0 0 0]</t>
         </is>
       </c>
       <c r="C172" t="n">
-        <v>0.2</v>
+        <v>0.4833333333333333</v>
       </c>
     </row>
     <row r="173">
@@ -2607,11 +2607,11 @@
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>[1 0 0 2 0 0]</t>
+          <t>[1 0 0 0 0 0]</t>
         </is>
       </c>
       <c r="C173" t="n">
-        <v>0.2</v>
+        <v>0.4833333333333333</v>
       </c>
     </row>
     <row r="174">
@@ -2620,11 +2620,11 @@
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>[1 0 0 2 0 0]</t>
+          <t>[1 0 0 0 0 0]</t>
         </is>
       </c>
       <c r="C174" t="n">
-        <v>0.2</v>
+        <v>0.4833333333333333</v>
       </c>
     </row>
     <row r="175">
@@ -2633,11 +2633,11 @@
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>[2 0 0 2 0 0]</t>
+          <t>[2 0 0 0 0 0]</t>
         </is>
       </c>
       <c r="C175" t="n">
-        <v>0.1944444444444444</v>
+        <v>0.4777777777777778</v>
       </c>
     </row>
     <row r="176">
@@ -2646,11 +2646,11 @@
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>[2 0 0 2 0 0]</t>
+          <t>[2 0 0 0 0 0]</t>
         </is>
       </c>
       <c r="C176" t="n">
-        <v>0.1944444444444444</v>
+        <v>0.4777777777777778</v>
       </c>
     </row>
     <row r="177">
@@ -2659,11 +2659,11 @@
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>[2 0 0 2 0 0]</t>
+          <t>[2 0 0 0 0 0]</t>
         </is>
       </c>
       <c r="C177" t="n">
-        <v>0.1944444444444444</v>
+        <v>0.4777777777777778</v>
       </c>
     </row>
     <row r="178">
@@ -2672,11 +2672,11 @@
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>[2 0 0 2 0 0]</t>
+          <t>[2 0 0 0 0 0]</t>
         </is>
       </c>
       <c r="C178" t="n">
-        <v>0.1944444444444444</v>
+        <v>0.4777777777777778</v>
       </c>
     </row>
     <row r="179">
@@ -2685,11 +2685,11 @@
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>[2 0 0 2 0 0]</t>
+          <t>[2 0 0 0 0 0]</t>
         </is>
       </c>
       <c r="C179" t="n">
-        <v>0.1944444444444444</v>
+        <v>0.4777777777777778</v>
       </c>
     </row>
     <row r="180">
@@ -2698,11 +2698,11 @@
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>[2 0 0 2 0 0]</t>
+          <t>[2 0 0 0 0 0]</t>
         </is>
       </c>
       <c r="C180" t="n">
-        <v>0.1944444444444444</v>
+        <v>0.4777777777777778</v>
       </c>
     </row>
     <row r="181">
@@ -2711,11 +2711,11 @@
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>[2 0 0 2 0 0]</t>
+          <t>[2 0 0 0 0 0]</t>
         </is>
       </c>
       <c r="C181" t="n">
-        <v>0.1944444444444444</v>
+        <v>0.4777777777777778</v>
       </c>
     </row>
   </sheetData>
